--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E70483-78A5-479F-AC0B-741BECE563CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{46564212-B084-44D9-872C-9EE33F2ADE96}"/>
+    <workbookView windowWidth="16535" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
+    <t>名字</t>
   </si>
   <si>
     <t>hp</t>
@@ -39,19 +28,19 @@
     <t>mp</t>
   </si>
   <si>
-    <t>talk</t>
-  </si>
-  <si>
-    <t>skills</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>role_type</t>
-  </si>
-  <si>
-    <t>refresh_time</t>
+    <t>交谈文本</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>角色类型</t>
+  </si>
+  <si>
+    <t>刷新时间</t>
   </si>
   <si>
     <t>软泥怪1</t>
@@ -102,40 +91,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -144,45 +461,313 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -231,7 +816,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -264,26 +849,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -316,23 +884,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,260 +1025,255 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF9B8EE-331C-4B6A-BC32-41F9D7109811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="46.8">
-      <c r="A5" s="1">
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>100</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.8">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>20000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>10000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>500</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
-      <c r="A8" s="1">
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>500</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mmorpg\gameserver\src\main\resources\gameData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AC233F-61F8-474E-9543-A1438ADE0AF7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16536" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>id</t>
   </si>
@@ -49,56 +43,23 @@
     <t>刷新时间</t>
   </si>
   <si>
+    <t>掉落</t>
+  </si>
+  <si>
     <t>软泥怪1</t>
   </si>
   <si>
     <t>哇哇</t>
   </si>
   <si>
-    <t>软泥怪2</t>
-  </si>
-  <si>
-    <t>哇哇哇</t>
-  </si>
-  <si>
-    <t>新手村村长</t>
-  </si>
-  <si>
-    <t>欢迎来到新手村！</t>
-  </si>
-  <si>
-    <t>黑衣人</t>
-  </si>
-  <si>
-    <t>十步杀一人，千里不留行。</t>
-  </si>
-  <si>
-    <t>伊利丹</t>
-  </si>
-  <si>
-    <t>你们这是自寻死路！！</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,</t>
-  </si>
-  <si>
-    <t>疯狂的地精</t>
-  </si>
-  <si>
-    <t>时间就是金钱！</t>
-  </si>
-  <si>
-    <t>鱼人</t>
-  </si>
-  <si>
-    <t>噢哇</t>
-  </si>
-  <si>
-    <t>掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[{"</t>
     </r>
     <r>
@@ -106,7 +67,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -127,7 +87,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -148,7 +107,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,18 +122,61 @@
       </rPr>
       <t>}]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软泥怪2</t>
+  </si>
+  <si>
+    <t>哇哇哇</t>
+  </si>
+  <si>
+    <t>新手村村长</t>
+  </si>
+  <si>
+    <t>欢迎来到新手村！</t>
+  </si>
+  <si>
+    <t>黑衣人</t>
+  </si>
+  <si>
+    <t>十步杀一人，千里不留行。</t>
+  </si>
+  <si>
+    <t>伊利丹</t>
+  </si>
+  <si>
+    <t>你们这是自寻死路！！</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,</t>
   </si>
   <si>
     <t>[{"chance":100,"thingId":1002}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂的地精</t>
+  </si>
+  <si>
+    <t>时间就是金钱！</t>
+  </si>
+  <si>
+    <t>鱼人</t>
+  </si>
+  <si>
+    <t>噢哇</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,29 +185,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -214,9 +538,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -224,21 +790,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -496,21 +1106,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="36" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,15 +1149,15 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -556,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -571,15 +1181,15 @@
         <v>20000</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -588,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -603,12 +1213,12 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -617,7 +1227,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -632,12 +1242,12 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -646,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -661,24 +1271,24 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>20000</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>10000</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -690,15 +1300,15 @@
         <v>30000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>500</v>
@@ -707,7 +1317,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -722,12 +1332,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>500</v>
@@ -736,7 +1346,7 @@
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -752,8 +1362,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>id</t>
   </si>
@@ -165,6 +165,30 @@
   <si>
     <t>噢哇</t>
   </si>
+  <si>
+    <t>奈法利安</t>
+  </si>
+  <si>
+    <t>拉格纳罗斯</t>
+  </si>
+  <si>
+    <t>龙人</t>
+  </si>
+  <si>
+    <t>火元素</t>
+  </si>
+  <si>
+    <t>辛达苟萨</t>
+  </si>
+  <si>
+    <t>阿尔萨斯</t>
+  </si>
+  <si>
+    <t>霜之哀刃饿了。</t>
+  </si>
+  <si>
+    <t>憎恶</t>
+  </si>
 </sst>
 </file>
 
@@ -173,8 +197,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -185,17 +209,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,43 +343,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -259,82 +358,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -345,192 +368,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -539,13 +562,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,15 +591,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,15 +606,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +640,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -636,6 +663,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,10 +694,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,121 +706,121 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -790,8 +828,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,13 +1150,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="5" max="5" width="19.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.6666666666667"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:10">
       <c r="A1" t="s">
@@ -1152,214 +1195,407 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>20000</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>20000</v>
       </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+    <row r="4" ht="21.6" spans="1:11">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>30000</v>
       </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+    <row r="5" ht="21.6" spans="1:11">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>100</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>30000</v>
       </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+    <row r="6" ht="34.2" spans="1:11">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>88</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>10000</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>30000</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+    <row r="7" ht="21.6" spans="1:11">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>500</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>10000</v>
       </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>500</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>10000</v>
       </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>400</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" ht="21.6" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="1">
+        <v>401</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="1">
+        <v>402</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>200</v>
+      </c>
+      <c r="D12" s="1">
+        <v>403</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>404</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" ht="34.2" spans="1:11">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D14" s="1">
+        <v>405</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10051006</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1">
+        <v>200</v>
+      </c>
+      <c r="D15" s="1">
+        <v>400</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,9 @@
     <t>哇哇哇</t>
   </si>
   <si>
+    <t>[{"chance":50,"thingId":1004}]</t>
+  </si>
+  <si>
     <t>新手村村长</t>
   </si>
   <si>
@@ -166,15 +169,24 @@
     <t>噢哇</t>
   </si>
   <si>
+    <t>[{"chance":50,"thingId":1005}]</t>
+  </si>
+  <si>
     <t>奈法利安</t>
   </si>
   <si>
     <t>拉格纳罗斯</t>
   </si>
   <si>
+    <t>[{"chance":50,"thingId":1006}]</t>
+  </si>
+  <si>
     <t>龙人</t>
   </si>
   <si>
+    <t>[{"chance":50,"thingId":1008}]</t>
+  </si>
+  <si>
     <t>火元素</t>
   </si>
   <si>
@@ -185,6 +197,9 @@
   </si>
   <si>
     <t>霜之哀刃饿了。</t>
+  </si>
+  <si>
+    <t>[{"chance":100,"thingId":1003}]</t>
   </si>
   <si>
     <t>憎恶</t>
@@ -223,7 +238,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +312,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -259,42 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -302,62 +373,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,174 +383,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -543,12 +564,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,16 +596,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,17 +631,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,7 +661,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,11 +683,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1168,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1256,7 +1271,9 @@
       <c r="I3" s="1">
         <v>20000</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" ht="21.6" spans="1:11">
@@ -1264,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1273,7 +1290,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1287,7 +1304,9 @@
       <c r="I4" s="1">
         <v>30000</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" ht="21.6" spans="1:11">
@@ -1295,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -1304,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1318,15 +1337,17 @@
       <c r="I5" s="1">
         <v>30000</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" ht="34.2" spans="1:11">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>88</v>
@@ -1335,10 +1356,10 @@
         <v>10000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1350,7 +1371,7 @@
         <v>30000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -1359,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>500</v>
@@ -1368,7 +1389,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1382,7 +1403,9 @@
       <c r="I7" s="1">
         <v>10000</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11">
@@ -1390,7 +1413,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>500</v>
@@ -1399,7 +1422,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1413,7 +1436,9 @@
       <c r="I8" s="1">
         <v>10000</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
@@ -1421,7 +1446,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>1000</v>
@@ -1438,7 +1463,9 @@
         <v>3</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" ht="21.6" spans="1:11">
@@ -1446,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>1200</v>
@@ -1463,7 +1490,9 @@
         <v>3</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
@@ -1471,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>200</v>
@@ -1488,7 +1517,9 @@
         <v>3</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
@@ -1496,7 +1527,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>200</v>
@@ -1513,7 +1544,9 @@
         <v>3</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
@@ -1521,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>1000</v>
@@ -1538,15 +1571,17 @@
         <v>3</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" ht="34.2" spans="1:11">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
         <v>1200</v>
@@ -1555,7 +1590,7 @@
         <v>405</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1">
         <v>10051006</v>
@@ -1568,7 +1603,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -1577,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
         <v>200</v>
@@ -1594,7 +1629,9 @@
         <v>3</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K15" s="1"/>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>id</t>
   </si>
@@ -52,76 +52,7 @@
     <t>哇哇</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"thingId":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}]</t>
-    </r>
+    <t>[{"chance":100,"thingId":1001},{"chance":100,"thingId":1007},{"chance":100,"thingId":1008}]</t>
   </si>
   <si>
     <t>软泥怪2</t>
@@ -130,15 +61,18 @@
     <t>哇哇哇</t>
   </si>
   <si>
+    <t>[{"chance":50,"thingId":1004},{"chance":100,"thingId":1006}]</t>
+  </si>
+  <si>
+    <t>新手村村长</t>
+  </si>
+  <si>
+    <t>欢迎来到新手村！</t>
+  </si>
+  <si>
     <t>[{"chance":50,"thingId":1004}]</t>
   </si>
   <si>
-    <t>新手村村长</t>
-  </si>
-  <si>
-    <t>欢迎来到新手村！</t>
-  </si>
-  <si>
     <t>黑衣人</t>
   </si>
   <si>
@@ -199,7 +133,7 @@
     <t>霜之哀刃饿了。</t>
   </si>
   <si>
-    <t>[{"chance":100,"thingId":1003}]</t>
+    <t>[{"chance":100,"thingId":1007},{"chance":100,"thingId":1003}]</t>
   </si>
   <si>
     <t>憎恶</t>
@@ -230,6 +164,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -238,14 +180,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,22 +247,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,79 +270,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,30 +522,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +553,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -666,6 +600,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -680,15 +623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -697,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,141 +643,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1105,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1210,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" ht="41.4" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1238,12 +1175,12 @@
       <c r="I2" s="1">
         <v>20000</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" ht="22.8" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1305,7 +1242,7 @@
         <v>30000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -1314,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -1323,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1338,7 +1275,7 @@
         <v>30000</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -1347,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>88</v>
@@ -1356,10 +1293,10 @@
         <v>10000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1371,7 +1308,7 @@
         <v>30000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -1380,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>500</v>
@@ -1389,7 +1326,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1404,7 +1341,7 @@
         <v>10000</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -1413,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>500</v>
@@ -1422,7 +1359,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1437,7 +1374,7 @@
         <v>10000</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -1446,7 +1383,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>1000</v>
@@ -1464,7 +1401,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1473,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>1200</v>
@@ -1491,7 +1428,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1"/>
     </row>
@@ -1500,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>200</v>
@@ -1518,7 +1455,7 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -1527,7 +1464,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>200</v>
@@ -1545,7 +1482,7 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -1554,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
         <v>1000</v>
@@ -1572,16 +1509,16 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" ht="22.8" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
         <v>1200</v>
@@ -1590,7 +1527,7 @@
         <v>405</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1">
         <v>10051006</v>
@@ -1603,7 +1540,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -1612,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <v>200</v>
@@ -1630,7 +1567,7 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K15" s="1"/>
     </row>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="场景对象" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>憎恶</t>
+  </si>
+  <si>
+    <t>灵魂医者</t>
+  </si>
+  <si>
+    <t>想要复活吗？</t>
   </si>
 </sst>
 </file>
@@ -164,6 +170,126 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -172,20 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,104 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -299,14 +313,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,49 +323,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,133 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +532,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -537,17 +576,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,30 +599,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -602,9 +606,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1571,6 +1577,33 @@
       </c>
       <c r="K15" s="1"/>
     </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>99999</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -151,8 +151,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -177,22 +177,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +221,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -214,6 +245,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -221,98 +313,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,13 +323,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,169 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +528,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,15 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -580,26 +601,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +621,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,145 +637,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
-    <sheet name="场景对象" sheetId="1" r:id="rId1"/>
+    <sheet name="场景对象配置表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>id</t>
   </si>
@@ -22,10 +22,13 @@
     <t>名字</t>
   </si>
   <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>mp</t>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>魔法值</t>
+  </si>
+  <si>
+    <t>攻击力</t>
   </si>
   <si>
     <t>交谈文本</t>
@@ -85,9 +88,6 @@
     <t>你们这是自寻死路！！</t>
   </si>
   <si>
-    <t>1,2,3,4,5,</t>
-  </si>
-  <si>
     <t>[{"chance":100,"thingId":1002}]</t>
   </si>
   <si>
@@ -109,24 +109,42 @@
     <t>奈法利安</t>
   </si>
   <si>
+    <t>相对于人短暂的一生，龙族的长寿有着绝对的优势。对凡人来讲，不是你在支配时间，而是时间在主宰你！</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
     <t>拉格纳罗斯</t>
   </si>
   <si>
+    <t>吾即是炎王之主。</t>
+  </si>
+  <si>
     <t>[{"chance":50,"thingId":1006}]</t>
   </si>
   <si>
     <t>龙人</t>
   </si>
   <si>
+    <t>为了黑龙军团！为了耐萨里奥！</t>
+  </si>
+  <si>
     <t>[{"chance":50,"thingId":1008}]</t>
   </si>
   <si>
     <t>火元素</t>
   </si>
   <si>
+    <t>为了炎王拉格纳罗斯！</t>
+  </si>
+  <si>
     <t>辛达苟萨</t>
   </si>
   <si>
+    <t>我恨这个世界。</t>
+  </si>
+  <si>
     <t>阿尔萨斯</t>
   </si>
   <si>
@@ -137,6 +155,9 @@
   </si>
   <si>
     <t>憎恶</t>
+  </si>
+  <si>
+    <t>这儿还有活人。</t>
   </si>
   <si>
     <t>灵魂医者</t>
@@ -150,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +191,120 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,27 +318,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -221,98 +334,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,13 +350,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,37 +476,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,127 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,17 +559,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,8 +621,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,50 +656,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,141 +676,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,20 +1138,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="5" max="5" width="19.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="10.6666666666667"/>
-    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="6" max="6" width="35.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="10.6666666666667"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:10">
+    <row r="1" ht="36" customHeight="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1152,13 +1182,16 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="41.4" spans="1:11">
+    <row r="2" ht="41.4" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1166,32 +1199,35 @@
       <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>20000</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" ht="22.8" spans="1:11">
+    <row r="3" ht="22.8" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -1199,32 +1235,35 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>20000</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1"/>
     </row>
-    <row r="4" ht="21.6" spans="1:11">
+    <row r="4" ht="21.6" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1232,11 +1271,11 @@
       <c r="D4" s="1">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1245,19 +1284,22 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>30000</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" ht="21.6" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -1265,11 +1307,11 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1278,19 +1320,22 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>30000</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>88</v>
@@ -1298,8 +1343,8 @@
       <c r="D6" s="1">
         <v>10000</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
+      <c r="E6" s="1">
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
@@ -1308,17 +1353,20 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>30000</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
-    <row r="7" ht="21.6" spans="1:11">
+    <row r="7" ht="21.6" spans="1:12">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1331,27 +1379,30 @@
       <c r="D7" s="1">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
       <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>10000</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1364,31 +1415,34 @@
       <c r="D8" s="1">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>10000</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" ht="32.4" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1">
@@ -1397,26 +1451,33 @@
       <c r="D9" s="1">
         <v>400</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>1</v>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
-    <row r="10" ht="21.6" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="1">
         <v>1200</v>
@@ -1424,26 +1485,33 @@
       <c r="D10" s="1">
         <v>401</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>1</v>
+      <c r="E10" s="1">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
         <v>200</v>
@@ -1451,26 +1519,33 @@
       <c r="D11" s="1">
         <v>402</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>1</v>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>200</v>
@@ -1478,26 +1553,33 @@
       <c r="D12" s="1">
         <v>403</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>1</v>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
         <v>1000</v>
@@ -1505,26 +1587,33 @@
       <c r="D13" s="1">
         <v>404</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>1</v>
+      <c r="E13" s="1">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1"/>
     </row>
-    <row r="14" ht="22.8" spans="1:11">
+    <row r="14" ht="22.8" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
         <v>1200</v>
@@ -1532,30 +1621,33 @@
       <c r="D14" s="1">
         <v>405</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10051006</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
+      <c r="E14" s="1">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <v>200</v>
@@ -1563,26 +1655,33 @@
       <c r="D15" s="1">
         <v>400</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1">
-        <v>1</v>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
         <v>3</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1">
         <v>9999</v>
@@ -1590,19 +1689,22 @@
       <c r="D16" s="1">
         <v>99999</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -172,9 +172,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -204,8 +204,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,44 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,66 +334,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -356,181 +356,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +555,66 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,36 +648,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -626,36 +656,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1525,8 +1525,8 @@
       <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>32</v>
+      <c r="G11" s="1">
+        <v>3</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -1559,8 +1559,8 @@
       <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
+      <c r="G12" s="1">
+        <v>3</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1661,8 +1661,8 @@
       <c r="F15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>32</v>
+      <c r="G15" s="1">
+        <v>3</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -13,8 +13,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gonefuture</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1 NPC
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2 野怪
+3 副本怪物
+4 召唤兽</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>id</t>
   </si>
@@ -164,6 +198,12 @@
   </si>
   <si>
     <t>想要复活吗？</t>
+  </si>
+  <si>
+    <t>灵魂兽</t>
+  </si>
+  <si>
+    <t>猎人的伙伴</t>
   </si>
 </sst>
 </file>
@@ -172,8 +212,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -206,7 +246,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,20 +284,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +297,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -249,82 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,14 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -350,187 +390,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,17 +599,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +653,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,16 +681,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,15 +696,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,7 +707,7 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,16 +716,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,115 +734,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -888,7 +928,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1138,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1706,9 +1746,42 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1">
+        <v>200</v>
+      </c>
+      <c r="D17" s="1">
+        <v>200</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -83,7 +83,7 @@
     <t>掉落</t>
   </si>
   <si>
-    <t>软泥怪1</t>
+    <t>豺狼人</t>
   </si>
   <si>
     <t>哇哇</t>
@@ -92,7 +92,7 @@
     <t>[{"chance":100,"thingId":1001},{"chance":100,"thingId":1007},{"chance":100,"thingId":1008}]</t>
   </si>
   <si>
-    <t>软泥怪2</t>
+    <t>软泥怪</t>
   </si>
   <si>
     <t>哇哇哇</t>
@@ -211,9 +211,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -238,7 +238,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +312,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -261,44 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,21 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -334,52 +380,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -390,18 +390,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,157 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,6 +595,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,45 +657,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -679,15 +673,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -696,6 +681,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -704,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,133 +716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1192,49 +1192,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:11">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="41.4" spans="1:12">
+    <row r="2" ht="41.4" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -1260,20 +1260,19 @@
       <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1"/>
     </row>
-    <row r="3" ht="22.8" spans="1:12">
+    <row r="3" ht="22.8" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -1296,9 +1295,8 @@
       <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="1"/>
     </row>
-    <row r="4" ht="21.6" spans="1:12">
+    <row r="4" ht="21.6" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1332,9 +1330,8 @@
       <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1368,9 +1365,8 @@
       <c r="K5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1378,7 +1374,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="1">
-        <v>88</v>
+        <v>3000</v>
       </c>
       <c r="D6" s="1">
         <v>10000</v>
@@ -1404,9 +1400,8 @@
       <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="1"/>
     </row>
-    <row r="7" ht="21.6" spans="1:12">
+    <row r="7" ht="21.6" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1440,9 +1435,8 @@
       <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1476,9 +1470,8 @@
       <c r="K8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="1"/>
     </row>
-    <row r="9" ht="32.4" spans="1:12">
+    <row r="9" ht="32.4" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1510,9 +1503,8 @@
       <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1544,9 +1536,8 @@
       <c r="K10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1578,9 +1569,8 @@
       <c r="K11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1612,9 +1602,8 @@
       <c r="K12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1646,9 +1635,8 @@
       <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="1"/>
     </row>
-    <row r="14" ht="22.8" spans="1:12">
+    <row r="14" ht="22.8" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1680,9 +1668,8 @@
       <c r="K14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1714,9 +1701,8 @@
       <c r="K15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1744,9 +1730,8 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1776,7 +1761,6 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>id</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>猎人的伙伴</t>
+  </si>
+  <si>
+    <t>2,9</t>
   </si>
 </sst>
 </file>
@@ -237,6 +240,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -244,15 +262,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +300,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -274,100 +362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +376,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -390,78 +393,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,97 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,6 +598,80 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,80 +699,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -704,10 +707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,133 +719,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,7 +1184,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1751,7 +1754,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -1759,7 +1762,9 @@
       <c r="I17" s="1">
         <v>4</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>30000</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -19,27 +19,19 @@
     <author>gonefuture</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1 NPC
-</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>2 野怪
+          <t xml:space="preserve">1 NPC
+2 野怪
 3 副本怪物
-4 召唤兽</t>
+4 召唤兽
+</t>
         </r>
       </text>
     </comment>
@@ -48,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>id</t>
   </si>
@@ -204,9 +196,6 @@
   </si>
   <si>
     <t>猎人的伙伴</t>
-  </si>
-  <si>
-    <t>2,9</t>
   </si>
 </sst>
 </file>
@@ -214,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -240,6 +229,96 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -248,15 +327,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +344,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,112 +372,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -399,181 +388,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +591,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -613,32 +631,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,24 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,6 +673,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -707,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,133 +708,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,13 +1173,14 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="6" max="6" width="35.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="10.6666666666667"/>
+    <col min="10" max="10" width="9.44444444444444"/>
     <col min="11" max="11" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1745,7 +1735,7 @@
         <v>200</v>
       </c>
       <c r="D17" s="1">
-        <v>200</v>
+        <v>455</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -1754,7 +1744,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -1763,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="1">
-        <v>30000</v>
+        <v>3600000</v>
       </c>
       <c r="K17" s="1"/>
     </row>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -203,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -229,6 +229,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,17 +267,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,8 +289,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,69 +350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,25 +366,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -382,19 +382,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,37 +460,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,115 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,31 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +617,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,21 +656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -688,6 +670,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -696,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,133 +708,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1230,7 +1230,7 @@
         <v>200</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>

--- a/gameserver/src/main/resources/gameData/sceneObject.xlsx
+++ b/gameserver/src/main/resources/gameData/sceneObject.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>掉落</t>
+  </si>
+  <si>
+    <t>任务</t>
   </si>
   <si>
     <t>豺狼人</t>
@@ -205,8 +208,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -230,7 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +255,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,24 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,22 +362,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,52 +375,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,187 +385,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,41 +605,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,8 +651,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,10 +1173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1184,7 +1187,7 @@
     <col min="11" max="11" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:11">
+    <row r="1" ht="36" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,6 +1220,9 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:11">
@@ -1224,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>200</v>
@@ -1236,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -1251,7 +1257,7 @@
         <v>20000</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="22.8" spans="1:11">
@@ -1259,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>450</v>
@@ -1271,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1286,15 +1292,15 @@
         <v>20000</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="21.6" spans="1:11">
+    <row r="4" ht="21.6" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1306,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1321,15 +1327,18 @@
         <v>30000</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -1341,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1356,7 +1365,10 @@
         <v>30000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1364,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>3000</v>
@@ -1376,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1391,7 +1403,7 @@
         <v>30000</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="21.6" spans="1:11">
@@ -1399,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>500</v>
@@ -1411,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1426,7 +1438,7 @@
         <v>10000</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1434,7 +1446,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>500</v>
@@ -1446,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1461,7 +1473,7 @@
         <v>10000</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="32.4" spans="1:11">
@@ -1469,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>1000</v>
@@ -1481,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -1494,7 +1506,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1502,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>1200</v>
@@ -1514,10 +1526,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1527,7 +1539,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1535,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>200</v>
@@ -1547,7 +1559,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -1560,7 +1572,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1568,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>200</v>
@@ -1580,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -1593,7 +1605,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1601,7 +1613,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1">
         <v>1000</v>
@@ -1613,10 +1625,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -1626,7 +1638,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="22.8" spans="1:11">
@@ -1634,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1">
         <v>1200</v>
@@ -1646,10 +1658,10 @@
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1659,7 +1671,7 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1667,7 +1679,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>200</v>
@@ -1679,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -1692,7 +1704,7 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1700,7 +1712,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1">
         <v>9999</v>
@@ -1712,7 +1724,7 @@
         <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
@@ -1729,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1">
         <v>200</v>
@@ -1741,10 +1753,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
